--- a/Proyectos/2016/8/P - Agosto,Tramite Prosoft, Maria Eugenia_MO/1. archivo prosoft gc.xlsx
+++ b/Proyectos/2016/8/P - Agosto,Tramite Prosoft, Maria Eugenia_MO/1. archivo prosoft gc.xlsx
@@ -1536,20 +1536,93 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1559,117 +1632,56 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1680,26 +1692,14 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2276,7 +2276,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2382,7 +2382,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4232,7 +4232,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4354,7 +4354,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4541,7 +4541,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4647,7 +4647,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4994,7 +4994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5015,17 +5015,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:19">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
       <c r="E5" s="33"/>
       <c r="F5" s="85" t="s">
         <v>122</v>
@@ -5039,23 +5039,23 @@
       <c r="M5" s="85"/>
       <c r="N5" s="85"/>
       <c r="O5" s="85"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="152"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="152"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="33"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -5076,94 +5076,94 @@
       <c r="A8" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="145" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="156" t="s">
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="156"/>
-      <c r="N8" s="145" t="s">
+      <c r="M8" s="142"/>
+      <c r="N8" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="87">
         <v>1.2</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="137" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="166" t="s">
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="137" t="s">
+      <c r="M9" s="146"/>
+      <c r="N9" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="O9" s="137"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="87">
         <v>1.3</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="174" t="s">
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="156" t="s">
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="156"/>
-      <c r="N10" s="145" t="s">
+      <c r="M10" s="142"/>
+      <c r="N10" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="87">
@@ -5171,150 +5171,150 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="171" t="s">
+      <c r="D11" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="170">
+      <c r="E11" s="144"/>
+      <c r="F11" s="145">
         <v>99011</v>
       </c>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="166" t="s">
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="166"/>
-      <c r="N11" s="170" t="s">
+      <c r="M11" s="146"/>
+      <c r="N11" s="145" t="s">
         <v>180</v>
       </c>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="87">
         <v>1.5</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="156" t="s">
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="169" t="s">
+      <c r="M12" s="142"/>
+      <c r="N12" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="169"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="87">
         <v>1.6</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="156" t="s">
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="170">
+      <c r="M13" s="142"/>
+      <c r="N13" s="145">
         <v>99011</v>
       </c>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="87">
         <v>1.7</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137" t="s">
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="156" t="s">
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="156"/>
-      <c r="N14" s="143" t="s">
+      <c r="M14" s="142"/>
+      <c r="N14" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="87">
         <v>1.8</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="145" t="s">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="87"/>
@@ -5366,32 +5366,32 @@
       <c r="A20" s="87">
         <v>1.9</v>
       </c>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="145" t="s">
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="143" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="167" t="s">
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="145" t="s">
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="145"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="87"/>
@@ -5405,9 +5405,9 @@
       <c r="I21" s="93"/>
       <c r="J21" s="93"/>
       <c r="K21" s="93"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
       <c r="O21" s="86"/>
       <c r="P21" s="86"/>
       <c r="Q21" s="86"/>
@@ -5418,32 +5418,32 @@
       <c r="A22" s="87">
         <v>2</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="145" t="s">
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="143" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="166" t="s">
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="145" t="s">
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="145"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="89"/>
@@ -5470,26 +5470,26 @@
       <c r="A24" s="87">
         <v>2.1</v>
       </c>
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="98"/>
-      <c r="G24" s="166" t="s">
+      <c r="G24" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="M24" s="156" t="s">
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="M24" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="156"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="87"/>
@@ -5506,20 +5506,20 @@
       <c r="A26" s="87">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="98"/>
-      <c r="G26" s="166" t="s">
+      <c r="G26" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
       <c r="L26" s="99"/>
       <c r="M26" s="99"/>
       <c r="N26" s="99"/>
@@ -5536,21 +5536,21 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="89"/>
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="145">
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="143">
         <v>468412</v>
       </c>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="89"/>
@@ -5587,28 +5587,28 @@
       <c r="A31" s="102">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="152" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="145" t="s">
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="143"/>
+      <c r="Q31" s="143"/>
+      <c r="R31" s="143"/>
+      <c r="S31" s="143"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="102"/>
@@ -5616,49 +5616,49 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="161" t="s">
+      <c r="F32" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="153"/>
       <c r="S32" s="103"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="102">
         <v>2.4</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="145" t="s">
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="143" t="s">
         <v>206</v>
       </c>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="145"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="143"/>
+      <c r="R33" s="143"/>
+      <c r="S33" s="143"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="102"/>
@@ -5666,49 +5666,49 @@
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="163" t="s">
+      <c r="F34" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="163"/>
-      <c r="S34" s="163"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="154"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="102">
         <v>2.5</v>
       </c>
-      <c r="B35" s="136" t="s">
+      <c r="B35" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="162" t="s">
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="145"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="143"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="143"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="102"/>
@@ -5716,50 +5716,50 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="161" t="s">
+      <c r="F36" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="161"/>
-      <c r="S36" s="161"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="87">
         <v>2.6</v>
       </c>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="145" t="s">
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="143" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="M37" s="145" t="s">
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="M37" s="143" t="s">
         <v>210</v>
       </c>
-      <c r="N37" s="145"/>
-      <c r="O37" s="145"/>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="145"/>
-      <c r="R37" s="145"/>
-      <c r="S37" s="145"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="S37" s="143"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="89"/>
@@ -5767,23 +5767,23 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="137" t="s">
+      <c r="F38" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="M38" s="145" t="s">
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="141"/>
+      <c r="M38" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="89"/>
@@ -5810,57 +5810,57 @@
       <c r="A40" s="102">
         <v>2.7</v>
       </c>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="145" t="s">
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="145"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
       <c r="L40" s="86"/>
-      <c r="M40" s="145" t="s">
+      <c r="M40" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="N40" s="145"/>
-      <c r="O40" s="145"/>
-      <c r="P40" s="145"/>
-      <c r="Q40" s="145"/>
-      <c r="R40" s="145"/>
-      <c r="S40" s="145"/>
+      <c r="N40" s="143"/>
+      <c r="O40" s="143"/>
+      <c r="P40" s="143"/>
+      <c r="Q40" s="143"/>
+      <c r="R40" s="143"/>
+      <c r="S40" s="143"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="102">
         <v>2.8</v>
       </c>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="145" t="s">
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="143" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="145"/>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="145"/>
-      <c r="S41" s="145"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="143"/>
+      <c r="P41" s="143"/>
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="102"/>
@@ -5868,49 +5868,49 @@
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="161" t="s">
+      <c r="F42" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="161"/>
-      <c r="S42" s="161"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="153"/>
+      <c r="R42" s="153"/>
+      <c r="S42" s="153"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="102">
         <v>2.9</v>
       </c>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="162" t="s">
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="145"/>
-      <c r="O43" s="145"/>
-      <c r="P43" s="145"/>
-      <c r="Q43" s="145"/>
-      <c r="R43" s="145"/>
-      <c r="S43" s="145"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="143"/>
+      <c r="N43" s="143"/>
+      <c r="O43" s="143"/>
+      <c r="P43" s="143"/>
+      <c r="Q43" s="143"/>
+      <c r="R43" s="143"/>
+      <c r="S43" s="143"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="102"/>
@@ -5918,29 +5918,29 @@
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="163" t="s">
+      <c r="F44" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163"/>
-      <c r="P44" s="163"/>
-      <c r="Q44" s="163"/>
-      <c r="R44" s="163"/>
-      <c r="S44" s="163"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="154"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1">
       <c r="A45" s="89"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="160"/>
       <c r="F45" s="85" t="s">
         <v>139</v>
       </c>
@@ -5981,63 +5981,63 @@
     </row>
     <row r="47" spans="1:19" ht="18.75">
       <c r="A47" s="89"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="107"/>
-      <c r="G47" s="149">
+      <c r="G47" s="156">
         <v>2011</v>
       </c>
-      <c r="H47" s="150"/>
-      <c r="I47" s="149">
+      <c r="H47" s="161"/>
+      <c r="I47" s="156">
         <v>2012</v>
       </c>
-      <c r="J47" s="150"/>
-      <c r="K47" s="149">
+      <c r="J47" s="161"/>
+      <c r="K47" s="156">
         <v>2013</v>
       </c>
-      <c r="L47" s="150"/>
-      <c r="M47" s="149">
+      <c r="L47" s="161"/>
+      <c r="M47" s="156">
         <v>2014</v>
       </c>
-      <c r="N47" s="150"/>
-      <c r="O47" s="149">
+      <c r="N47" s="161"/>
+      <c r="O47" s="156">
         <v>2015</v>
       </c>
-      <c r="P47" s="151"/>
+      <c r="P47" s="157"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="87">
         <v>3</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="108"/>
-      <c r="G48" s="157">
+      <c r="G48" s="158">
         <v>328000000</v>
       </c>
-      <c r="H48" s="158"/>
-      <c r="I48" s="157">
+      <c r="H48" s="159"/>
+      <c r="I48" s="158">
         <v>342000000</v>
       </c>
-      <c r="J48" s="158"/>
-      <c r="K48" s="157">
+      <c r="J48" s="159"/>
+      <c r="K48" s="158">
         <v>385000000</v>
       </c>
-      <c r="L48" s="158"/>
-      <c r="M48" s="157">
+      <c r="L48" s="159"/>
+      <c r="M48" s="158">
         <v>402000000</v>
       </c>
-      <c r="N48" s="158"/>
-      <c r="O48" s="157">
+      <c r="N48" s="159"/>
+      <c r="O48" s="158">
         <v>430000000</v>
       </c>
-      <c r="P48" s="158"/>
+      <c r="P48" s="159"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="89"/>
@@ -6051,65 +6051,65 @@
       <c r="A50" s="87">
         <v>3.1</v>
       </c>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="110"/>
-      <c r="G50" s="159">
+      <c r="G50" s="164">
         <v>0</v>
       </c>
-      <c r="H50" s="160"/>
-      <c r="I50" s="159">
+      <c r="H50" s="165"/>
+      <c r="I50" s="164">
         <v>0</v>
       </c>
-      <c r="J50" s="160"/>
-      <c r="K50" s="159">
+      <c r="J50" s="165"/>
+      <c r="K50" s="164">
         <v>0</v>
       </c>
-      <c r="L50" s="160"/>
-      <c r="M50" s="159">
+      <c r="L50" s="165"/>
+      <c r="M50" s="164">
         <v>0</v>
       </c>
-      <c r="N50" s="160"/>
-      <c r="O50" s="159">
+      <c r="N50" s="165"/>
+      <c r="O50" s="164">
         <v>0</v>
       </c>
-      <c r="P50" s="160"/>
+      <c r="P50" s="165"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="87">
         <v>3.2</v>
       </c>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="111"/>
-      <c r="G51" s="141" t="s">
+      <c r="G51" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="H51" s="142"/>
-      <c r="I51" s="141" t="s">
+      <c r="H51" s="163"/>
+      <c r="I51" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="J51" s="142"/>
-      <c r="K51" s="141" t="s">
+      <c r="J51" s="163"/>
+      <c r="K51" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="L51" s="142"/>
-      <c r="M51" s="141" t="s">
+      <c r="L51" s="163"/>
+      <c r="M51" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="N51" s="142"/>
-      <c r="O51" s="141" t="s">
+      <c r="N51" s="163"/>
+      <c r="O51" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="P51" s="142"/>
+      <c r="P51" s="163"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="89"/>
@@ -6123,66 +6123,66 @@
       <c r="A53" s="87">
         <v>3.3</v>
       </c>
-      <c r="B53" s="152" t="s">
+      <c r="B53" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="152"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="152"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="108"/>
-      <c r="G53" s="157">
+      <c r="G53" s="158">
         <v>32000</v>
       </c>
-      <c r="H53" s="158"/>
-      <c r="I53" s="157">
+      <c r="H53" s="159"/>
+      <c r="I53" s="158">
         <v>20000</v>
       </c>
-      <c r="J53" s="158"/>
-      <c r="K53" s="157">
+      <c r="J53" s="159"/>
+      <c r="K53" s="158">
         <v>36000</v>
       </c>
-      <c r="L53" s="158"/>
-      <c r="M53" s="157">
+      <c r="L53" s="159"/>
+      <c r="M53" s="158">
         <v>48000</v>
       </c>
-      <c r="N53" s="158"/>
-      <c r="O53" s="157">
+      <c r="N53" s="159"/>
+      <c r="O53" s="158">
         <v>86000</v>
       </c>
-      <c r="P53" s="158"/>
+      <c r="P53" s="159"/>
       <c r="S53" s="112"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="87">
         <v>3.4</v>
       </c>
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="138"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="152"/>
       <c r="F54" s="108"/>
-      <c r="G54" s="157">
+      <c r="G54" s="158">
         <v>0</v>
       </c>
-      <c r="H54" s="158"/>
-      <c r="I54" s="157">
+      <c r="H54" s="159"/>
+      <c r="I54" s="158">
         <v>0</v>
       </c>
-      <c r="J54" s="158"/>
-      <c r="K54" s="157">
+      <c r="J54" s="159"/>
+      <c r="K54" s="158">
         <v>0</v>
       </c>
-      <c r="L54" s="158"/>
-      <c r="M54" s="157">
+      <c r="L54" s="159"/>
+      <c r="M54" s="158">
         <v>0</v>
       </c>
-      <c r="N54" s="158"/>
-      <c r="O54" s="157">
+      <c r="N54" s="159"/>
+      <c r="O54" s="158">
         <v>0</v>
       </c>
-      <c r="P54" s="158"/>
+      <c r="P54" s="159"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="89"/>
@@ -6228,29 +6228,29 @@
       <c r="A59" s="87">
         <v>3.5</v>
       </c>
-      <c r="B59" s="155" t="s">
+      <c r="B59" s="168" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="168"/>
       <c r="F59" s="86"/>
-      <c r="G59" s="146" t="s">
+      <c r="G59" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="146"/>
-      <c r="K59" s="156" t="s">
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="146">
+      <c r="L59" s="142"/>
+      <c r="M59" s="142"/>
+      <c r="N59" s="169">
         <v>260</v>
       </c>
-      <c r="O59" s="146"/>
-      <c r="P59" s="146"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
       <c r="Q59" s="86"/>
       <c r="R59" s="113"/>
       <c r="S59" s="113"/>
@@ -6266,63 +6266,63 @@
     </row>
     <row r="61" spans="1:19" ht="18.75">
       <c r="A61" s="87"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
       <c r="F61" s="114"/>
-      <c r="G61" s="149">
+      <c r="G61" s="156">
         <v>2011</v>
       </c>
-      <c r="H61" s="150"/>
-      <c r="I61" s="149">
+      <c r="H61" s="161"/>
+      <c r="I61" s="156">
         <v>2012</v>
       </c>
-      <c r="J61" s="150"/>
-      <c r="K61" s="149">
+      <c r="J61" s="161"/>
+      <c r="K61" s="156">
         <v>2013</v>
       </c>
-      <c r="L61" s="150"/>
-      <c r="M61" s="149">
+      <c r="L61" s="161"/>
+      <c r="M61" s="156">
         <v>2014</v>
       </c>
-      <c r="N61" s="150"/>
-      <c r="O61" s="149">
+      <c r="N61" s="161"/>
+      <c r="O61" s="156">
         <v>2015</v>
       </c>
-      <c r="P61" s="151"/>
+      <c r="P61" s="157"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="87">
         <v>3.6</v>
       </c>
-      <c r="B62" s="136" t="s">
+      <c r="B62" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
       <c r="F62" s="115"/>
-      <c r="G62" s="153">
+      <c r="G62" s="166">
         <v>220</v>
       </c>
-      <c r="H62" s="154"/>
-      <c r="I62" s="153">
+      <c r="H62" s="167"/>
+      <c r="I62" s="166">
         <v>226</v>
       </c>
-      <c r="J62" s="154"/>
-      <c r="K62" s="153">
+      <c r="J62" s="167"/>
+      <c r="K62" s="166">
         <v>230</v>
       </c>
-      <c r="L62" s="154"/>
-      <c r="M62" s="153">
+      <c r="L62" s="167"/>
+      <c r="M62" s="166">
         <v>245</v>
       </c>
-      <c r="N62" s="154"/>
-      <c r="O62" s="153">
+      <c r="N62" s="167"/>
+      <c r="O62" s="166">
         <v>260</v>
       </c>
-      <c r="P62" s="154"/>
+      <c r="P62" s="167"/>
       <c r="R62" s="116"/>
     </row>
     <row r="63" spans="1:19">
@@ -6358,22 +6358,22 @@
       <c r="C65" s="89"/>
       <c r="D65" s="89"/>
       <c r="E65" s="89"/>
-      <c r="H65" s="149">
+      <c r="H65" s="156">
         <v>2015</v>
       </c>
-      <c r="I65" s="150"/>
-      <c r="J65" s="150"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="150"/>
-      <c r="N65" s="151"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="161"/>
+      <c r="L65" s="161"/>
+      <c r="M65" s="161"/>
+      <c r="N65" s="157"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="89"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="152"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
       <c r="I66" s="117" t="s">
         <v>147</v>
       </c>
@@ -6392,17 +6392,25 @@
       <c r="A67" s="87">
         <v>3.7</v>
       </c>
-      <c r="B67" s="136" t="s">
+      <c r="B67" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="136"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="139"/>
       <c r="H67" s="118"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="119"/>
+      <c r="I67" s="135">
+        <v>1</v>
+      </c>
+      <c r="J67" s="119">
+        <v>6</v>
+      </c>
+      <c r="K67" s="119">
+        <v>8</v>
+      </c>
+      <c r="L67" s="119">
+        <v>13</v>
+      </c>
       <c r="M67" s="120" t="str">
         <f>IF(SUM(I67:L67)&lt;=O62,"Total","Error en Total")</f>
         <v>Total</v>
@@ -6412,12 +6420,12 @@
       <c r="A68" s="87">
         <v>3.8</v>
       </c>
-      <c r="B68" s="136" t="s">
+      <c r="B68" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="136"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="139"/>
       <c r="H68" s="118"/>
       <c r="I68" s="119">
         <v>2</v>
@@ -6440,12 +6448,12 @@
       <c r="A69" s="87">
         <v>3.9</v>
       </c>
-      <c r="B69" s="136" t="s">
+      <c r="B69" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="136"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
       <c r="H69" s="118"/>
       <c r="I69" s="119">
         <v>0</v>
@@ -6466,12 +6474,12 @@
     </row>
     <row r="70" spans="1:19" ht="18.75">
       <c r="A70" s="87"/>
-      <c r="B70" s="136" t="s">
+      <c r="B70" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="136"/>
-      <c r="D70" s="136"/>
-      <c r="E70" s="136"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
       <c r="H70" s="93"/>
@@ -6540,14 +6548,14 @@
       <c r="C74" s="125"/>
       <c r="D74" s="125"/>
       <c r="E74" s="125"/>
-      <c r="F74" s="146" t="s">
+      <c r="F74" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="146"/>
-      <c r="H74" s="146"/>
-      <c r="I74" s="146"/>
-      <c r="J74" s="146"/>
-      <c r="K74" s="146"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="169"/>
+      <c r="I74" s="169"/>
+      <c r="J74" s="169"/>
+      <c r="K74" s="169"/>
       <c r="P74" s="94"/>
       <c r="Q74" s="94"/>
     </row>
@@ -6557,14 +6565,14 @@
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
       <c r="E75" s="125"/>
-      <c r="F75" s="146" t="s">
+      <c r="F75" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="G75" s="146"/>
-      <c r="H75" s="146"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="146"/>
-      <c r="K75" s="146"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169"/>
+      <c r="K75" s="169"/>
       <c r="P75" s="94"/>
       <c r="Q75" s="94"/>
     </row>
@@ -6574,14 +6582,14 @@
       <c r="C76" s="125"/>
       <c r="D76" s="125"/>
       <c r="E76" s="125"/>
-      <c r="F76" s="146" t="s">
+      <c r="F76" s="169" t="s">
         <v>194</v>
       </c>
-      <c r="G76" s="146"/>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146"/>
-      <c r="J76" s="146"/>
-      <c r="K76" s="146"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
       <c r="P76" s="94"/>
       <c r="Q76" s="94"/>
     </row>
@@ -6591,14 +6599,14 @@
       <c r="C77" s="125"/>
       <c r="D77" s="125"/>
       <c r="E77" s="125"/>
-      <c r="F77" s="146" t="s">
+      <c r="F77" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="G77" s="146"/>
-      <c r="H77" s="146"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="146"/>
+      <c r="G77" s="169"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
       <c r="P77" s="94"/>
       <c r="Q77" s="94"/>
     </row>
@@ -6653,7 +6661,7 @@
       <c r="L80" s="121"/>
     </row>
     <row r="81" spans="1:19" ht="18.75">
-      <c r="A81" s="147">
+      <c r="A81" s="170">
         <v>4.0999999999999996</v>
       </c>
       <c r="B81" s="106"/>
@@ -6665,7 +6673,7 @@
       <c r="L81" s="121"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="147"/>
+      <c r="A82" s="170"/>
       <c r="B82" s="89"/>
       <c r="C82" s="89"/>
       <c r="D82" s="89"/>
@@ -6676,128 +6684,128 @@
       <c r="I82" s="97"/>
       <c r="J82" s="97"/>
       <c r="K82" s="113"/>
-      <c r="L82" s="148"/>
-      <c r="M82" s="148"/>
-      <c r="N82" s="148"/>
-      <c r="O82" s="148"/>
-      <c r="P82" s="148"/>
-      <c r="Q82" s="148"/>
+      <c r="L82" s="171"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="171"/>
+      <c r="O82" s="171"/>
+      <c r="P82" s="171"/>
+      <c r="Q82" s="171"/>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="89"/>
-      <c r="B83" s="136" t="s">
+      <c r="B83" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="145" t="s">
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="G83" s="145"/>
-      <c r="H83" s="145"/>
-      <c r="I83" s="145"/>
-      <c r="J83" s="145"/>
+      <c r="G83" s="143"/>
+      <c r="H83" s="143"/>
+      <c r="I83" s="143"/>
+      <c r="J83" s="143"/>
       <c r="K83" s="126"/>
-      <c r="L83" s="145" t="s">
+      <c r="L83" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="M83" s="145"/>
-      <c r="N83" s="145"/>
-      <c r="O83" s="145"/>
-      <c r="P83" s="145"/>
-      <c r="Q83" s="145"/>
+      <c r="M83" s="143"/>
+      <c r="N83" s="143"/>
+      <c r="O83" s="143"/>
+      <c r="P83" s="143"/>
+      <c r="Q83" s="143"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="89"/>
-      <c r="B84" s="136" t="s">
+      <c r="B84" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="137" t="s">
+      <c r="C84" s="139"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="G84" s="137"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="137"/>
+      <c r="G84" s="141"/>
+      <c r="H84" s="141"/>
+      <c r="I84" s="141"/>
+      <c r="J84" s="141"/>
       <c r="K84" s="126"/>
-      <c r="L84" s="145" t="s">
+      <c r="L84" s="143" t="s">
         <v>200</v>
       </c>
-      <c r="M84" s="145"/>
-      <c r="N84" s="145"/>
-      <c r="O84" s="145"/>
-      <c r="P84" s="145"/>
-      <c r="Q84" s="145"/>
+      <c r="M84" s="143"/>
+      <c r="N84" s="143"/>
+      <c r="O84" s="143"/>
+      <c r="P84" s="143"/>
+      <c r="Q84" s="143"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="89"/>
-      <c r="B85" s="136" t="s">
+      <c r="B85" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="143" t="s">
+      <c r="C85" s="139"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="139"/>
+      <c r="F85" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="137"/>
+      <c r="G85" s="141"/>
+      <c r="H85" s="141"/>
+      <c r="I85" s="141"/>
+      <c r="J85" s="141"/>
       <c r="K85" s="126"/>
-      <c r="L85" s="144" t="s">
+      <c r="L85" s="172" t="s">
         <v>201</v>
       </c>
-      <c r="M85" s="145"/>
-      <c r="N85" s="145"/>
-      <c r="O85" s="145"/>
-      <c r="P85" s="145"/>
-      <c r="Q85" s="145"/>
+      <c r="M85" s="143"/>
+      <c r="N85" s="143"/>
+      <c r="O85" s="143"/>
+      <c r="P85" s="143"/>
+      <c r="Q85" s="143"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="89"/>
-      <c r="B86" s="136" t="s">
+      <c r="B86" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="137" t="s">
+      <c r="C86" s="139"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137"/>
+      <c r="G86" s="141"/>
+      <c r="H86" s="141"/>
+      <c r="I86" s="141"/>
+      <c r="J86" s="141"/>
       <c r="K86" s="126"/>
-      <c r="L86" s="145" t="s">
+      <c r="L86" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="M86" s="145"/>
-      <c r="N86" s="145"/>
-      <c r="O86" s="145"/>
-      <c r="P86" s="145"/>
-      <c r="Q86" s="145"/>
+      <c r="M86" s="143"/>
+      <c r="N86" s="143"/>
+      <c r="O86" s="143"/>
+      <c r="P86" s="143"/>
+      <c r="Q86" s="143"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="89"/>
-      <c r="B87" s="136" t="s">
+      <c r="B87" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="136"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="137" t="s">
+      <c r="C87" s="139"/>
+      <c r="D87" s="139"/>
+      <c r="E87" s="139"/>
+      <c r="F87" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
-      <c r="J87" s="137"/>
+      <c r="G87" s="141"/>
+      <c r="H87" s="141"/>
+      <c r="I87" s="141"/>
+      <c r="J87" s="141"/>
       <c r="L87" s="86"/>
       <c r="M87" s="86"/>
       <c r="N87" s="86"/>
@@ -6818,47 +6826,47 @@
       <c r="A89" s="87">
         <v>4.2</v>
       </c>
-      <c r="B89" s="138" t="s">
+      <c r="B89" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="138"/>
-      <c r="D89" s="138"/>
-      <c r="E89" s="138"/>
+      <c r="C89" s="152"/>
+      <c r="D89" s="152"/>
+      <c r="E89" s="152"/>
     </row>
     <row r="90" spans="1:19" ht="18.75">
       <c r="A90" s="89"/>
-      <c r="B90" s="138"/>
-      <c r="C90" s="138"/>
-      <c r="D90" s="138"/>
-      <c r="E90" s="138"/>
-      <c r="G90" s="139" t="s">
+      <c r="B90" s="152"/>
+      <c r="C90" s="152"/>
+      <c r="D90" s="152"/>
+      <c r="E90" s="152"/>
+      <c r="G90" s="173" t="s">
         <v>158</v>
       </c>
-      <c r="H90" s="139"/>
-      <c r="I90" s="139" t="s">
+      <c r="H90" s="173"/>
+      <c r="I90" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="J90" s="139"/>
+      <c r="J90" s="173"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="89"/>
-      <c r="B91" s="140" t="s">
+      <c r="B91" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="140"/>
-      <c r="G91" s="141"/>
-      <c r="H91" s="142"/>
-      <c r="I91" s="141"/>
-      <c r="J91" s="142"/>
+      <c r="C91" s="174"/>
+      <c r="D91" s="174"/>
+      <c r="E91" s="174"/>
+      <c r="G91" s="162"/>
+      <c r="H91" s="163"/>
+      <c r="I91" s="162"/>
+      <c r="J91" s="163"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="89"/>
-      <c r="B92" s="140"/>
-      <c r="C92" s="140"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="140"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="174"/>
+      <c r="D92" s="174"/>
+      <c r="E92" s="174"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="89"/>
@@ -6910,80 +6918,78 @@
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="F32:R32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:S33"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:S41"/>
-    <mergeCell ref="F34:S34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:S35"/>
-    <mergeCell ref="F36:S36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="B89:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="B91:E92"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="L85:Q85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="L86:Q86"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="L83:Q83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="L84:Q84"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="G48:H48"/>
@@ -7001,106 +7007,84 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M47:N47"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F77:K77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="H65:N65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="L85:Q85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="L86:Q86"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="L83:Q83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="L84:Q84"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="B89:E90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="B91:E92"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:S41"/>
+    <mergeCell ref="F34:S34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:S35"/>
+    <mergeCell ref="F36:S36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="F32:R32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:S33"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:S10"/>
   </mergeCells>
-  <dataValidations count="27">
+  <dataValidations count="17">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="Ingresar al menos 150 caracteres, sin contar espacios" sqref="F43:S43">
       <formula1>LEN(TRIM(F43))&gt;100</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="No puede ser mayor al número de empleos actuales" sqref="K67">
-      <formula1>SUM(I67:L67)=O62</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="No puede ser mayor al número de empleos actuales" sqref="J67">
-      <formula1>SUM(I67:L67)=O62</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="No puede ser mayor al número de empleos actuales" sqref="I67">
-      <formula1>SUM(I67:L67)=O62</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="No puede ser mayor al número de empleos actuales" sqref="K68">
-      <formula1>SUM(I68:L68)&lt;=O62</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="No puede ser mayor al número de empleos actuales" sqref="I68">
-      <formula1>SUM(I68:L68)&lt;=O62</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de captura" error="No puede ser mayor al número de empleos actuales" sqref="J68">
-      <formula1>SUM(I68:L68)&lt;=O62</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="No puede ser mayor al número de empleos actuales" sqref="L68">
-      <formula1>SUM(I68:L68)&lt;=O62</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="No puede ser mayor al número de empleos actuales" sqref="L67">
-      <formula1>SUM(I67:L67)=O62</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Dato obligatorio " prompt="Introducir únicamente números de empleados" sqref="N59:P59">
       <formula1>0</formula1>
@@ -7140,8 +7124,6 @@
       <formula1>O59</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" error="No puede haber blancos, en su caso utilizar 0 " sqref="I69:L69"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="No coincide con Nümero de empleos actuales (2013)" sqref="M68"/>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="No puede ser mayor al número de empleos actuales" sqref="R59:S59">
       <formula1>0</formula1>
       <formula2>S62</formula2>
@@ -7186,9 +7168,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A1" s="180"/>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
+      <c r="A1" s="175"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7216,10 +7198,10 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="179"/>
+      <c r="B3" s="177"/>
       <c r="C3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -7431,10 +7413,10 @@
       <c r="M13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="179"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -7562,10 +7544,10 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="179"/>
+      <c r="B21" s="177"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -7716,10 +7698,10 @@
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="18.75">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="179"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="178"/>
@@ -7856,10 +7838,10 @@
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:8" ht="18.75">
-      <c r="A46" s="179" t="s">
+      <c r="A46" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="179"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
@@ -7915,10 +7897,10 @@
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" ht="18.75">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="179"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -8136,10 +8118,10 @@
       <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A68" s="179" t="s">
+      <c r="A68" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="179"/>
+      <c r="B68" s="177"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -8213,10 +8195,10 @@
       <c r="C74" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="175" t="s">
+      <c r="D74" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="175"/>
+      <c r="E74" s="179"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
     </row>
@@ -8226,8 +8208,8 @@
       <c r="C75" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="176"/>
-      <c r="E75" s="177"/>
+      <c r="D75" s="180"/>
+      <c r="E75" s="181"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
@@ -8237,8 +8219,8 @@
       <c r="C76" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="176"/>
-      <c r="E76" s="177"/>
+      <c r="D76" s="180"/>
+      <c r="E76" s="181"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
     </row>
@@ -8248,8 +8230,8 @@
       <c r="C77" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="176"/>
-      <c r="E77" s="177"/>
+      <c r="D77" s="180"/>
+      <c r="E77" s="181"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
@@ -8259,8 +8241,8 @@
       <c r="C78" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D78" s="176"/>
-      <c r="E78" s="177"/>
+      <c r="D78" s="180"/>
+      <c r="E78" s="181"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
     </row>
@@ -8274,10 +8256,10 @@
       <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:16" s="71" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A80" s="181" t="s">
+      <c r="A80" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="181"/>
+      <c r="B80" s="176"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -8945,21 +8927,21 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="15">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" error="Ingresar al menos 200 caracteres" sqref="C12"/>
@@ -9022,17 +9004,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:19">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="127"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
       <c r="E5" s="127"/>
       <c r="F5" s="85" t="s">
         <v>177</v>
@@ -9046,23 +9028,23 @@
       <c r="M5" s="104"/>
       <c r="N5" s="104"/>
       <c r="O5" s="104"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="152"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="127"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="152"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="127"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -9156,12 +9138,12 @@
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1">
       <c r="A11" s="87"/>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="182" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
       <c r="F11" s="88"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
@@ -9208,10 +9190,10 @@
       <c r="A13" s="87">
         <v>1.4</v>
       </c>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="184" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="182"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="130" t="s">
         <v>168</v>
       </c>
@@ -9235,10 +9217,10 @@
       <c r="A14" s="87">
         <v>1.5</v>
       </c>
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="184" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="182"/>
+      <c r="C14" s="184"/>
       <c r="D14" s="128" t="s">
         <v>170</v>
       </c>
@@ -9281,12 +9263,12 @@
     </row>
     <row r="16" spans="1:19" ht="18.75" customHeight="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
       <c r="F16" s="88"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -9311,10 +9293,10 @@
       <c r="A18" s="87">
         <v>1.7</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="182"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="130"/>
       <c r="E18" s="128"/>
     </row>
@@ -9339,23 +9321,23 @@
       <c r="C20" s="186"/>
       <c r="D20" s="128"/>
       <c r="E20" s="128"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1">
       <c r="A21" s="87">
         <v>2</v>
       </c>
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="182"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="130"/>
       <c r="E21" s="128"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
       <c r="O21" s="86"/>
       <c r="P21" s="86"/>
       <c r="Q21" s="86"/>
@@ -9364,11 +9346,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="P5:Q5"/>
@@ -9383,6 +9360,11 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:S12">

--- a/Proyectos/2016/8/P - Agosto,Tramite Prosoft, Maria Eugenia_MO/1. archivo prosoft gc.xlsx
+++ b/Proyectos/2016/8/P - Agosto,Tramite Prosoft, Maria Eugenia_MO/1. archivo prosoft gc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760"/>
@@ -19,7 +19,7 @@
     <definedName name="Opción">'[1]Datos Generales'!$I$1048564:$I$1048566</definedName>
     <definedName name="Tipo">'[2]Datos Generales'!$B$1048554:$B$1048559</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -705,12 +705,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,140 +1536,155 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1677,29 +1692,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2276,7 +2276,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2382,7 +2382,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4232,7 +4232,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4354,7 +4354,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4541,7 +4541,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4647,7 +4647,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4671,7 +4671,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Datos Generales"/>
@@ -4695,7 +4695,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Evaluación de proyectos"/>
@@ -4994,38 +4994,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A4:S1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:19">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="33"/>
       <c r="F5" s="85" t="s">
         <v>122</v>
@@ -5039,23 +5039,23 @@
       <c r="M5" s="85"/>
       <c r="N5" s="85"/>
       <c r="O5" s="85"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="152"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="152"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="33"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -5072,251 +5072,251 @@
       <c r="R7" s="86"/>
       <c r="S7" s="86"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="143" t="s">
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="142" t="s">
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="143" t="s">
+      <c r="M8" s="156"/>
+      <c r="N8" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>1.2</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="141" t="s">
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="146" t="s">
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="146"/>
-      <c r="N9" s="141" t="s">
+      <c r="M9" s="166"/>
+      <c r="N9" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="87">
         <v>1.3</v>
       </c>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140" t="s">
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142" t="s">
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="142"/>
-      <c r="N10" s="143" t="s">
+      <c r="M10" s="156"/>
+      <c r="N10" s="145" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>1.4</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145">
+      <c r="E11" s="171"/>
+      <c r="F11" s="170">
         <v>99011</v>
       </c>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="146" t="s">
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="146"/>
-      <c r="N11" s="145" t="s">
+      <c r="M11" s="166"/>
+      <c r="N11" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>1.5</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="141" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="142" t="s">
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="142"/>
-      <c r="N12" s="148" t="s">
+      <c r="M12" s="156"/>
+      <c r="N12" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="169"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="87">
         <v>1.6</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="141" t="s">
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="142" t="s">
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="142"/>
-      <c r="N13" s="145">
+      <c r="M13" s="156"/>
+      <c r="N13" s="170">
         <v>99011</v>
       </c>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>1.7</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="141" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="142" t="s">
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="142"/>
-      <c r="N14" s="147" t="s">
+      <c r="M14" s="156"/>
+      <c r="N14" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="87">
         <v>1.8</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="143" t="s">
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="87"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -5333,21 +5333,21 @@
       <c r="L16" s="88"/>
       <c r="M16" s="88"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="89"/>
       <c r="B17" s="89"/>
       <c r="C17" s="89"/>
       <c r="D17" s="89"/>
       <c r="E17" s="89"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="89"/>
       <c r="B18" s="89"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
       <c r="E18" s="89"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="89"/>
       <c r="B19" s="90"/>
       <c r="C19" s="89"/>
@@ -5362,38 +5362,38 @@
       <c r="J19" s="91"/>
       <c r="K19" s="91"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="87">
         <v>1.9</v>
       </c>
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="143" t="s">
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="145" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="149" t="s">
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="143" t="s">
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="145" t="s">
         <v>204</v>
       </c>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="87"/>
       <c r="B21" s="92"/>
       <c r="C21" s="92"/>
@@ -5405,47 +5405,47 @@
       <c r="I21" s="93"/>
       <c r="J21" s="93"/>
       <c r="K21" s="93"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
       <c r="O21" s="86"/>
       <c r="P21" s="86"/>
       <c r="Q21" s="86"/>
       <c r="R21" s="86"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="87">
         <v>2</v>
       </c>
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="143" t="s">
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="146" t="s">
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="143" t="s">
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="143"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="89"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -5466,32 +5466,32 @@
       <c r="R23" s="97"/>
       <c r="S23" s="97"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="87">
         <v>2.1</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
       <c r="F24" s="98"/>
-      <c r="G24" s="146" t="s">
+      <c r="G24" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="M24" s="142" t="s">
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="M24" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="142"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="N24" s="156"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="87"/>
       <c r="B25" s="89"/>
       <c r="C25" s="89"/>
@@ -5502,24 +5502,24 @@
       <c r="P25" s="86"/>
       <c r="Q25" s="86"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="87">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
       <c r="F26" s="98"/>
-      <c r="G26" s="146" t="s">
+      <c r="G26" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
       <c r="L26" s="99"/>
       <c r="M26" s="99"/>
       <c r="N26" s="99"/>
@@ -5527,32 +5527,32 @@
       <c r="P26" s="99"/>
       <c r="Q26" s="99"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="89"/>
       <c r="B27" s="100"/>
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
       <c r="E27" s="89"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="89"/>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="143">
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="145">
         <v>468412</v>
       </c>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="89"/>
       <c r="B29" s="101"/>
       <c r="C29" s="101"/>
@@ -5564,7 +5564,7 @@
       <c r="L29" s="96"/>
       <c r="M29" s="96"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="89"/>
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
@@ -5583,209 +5583,209 @@
       <c r="N30" s="85"/>
       <c r="O30" s="85"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="102">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="143" t="s">
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="145" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="143"/>
-      <c r="S31" s="143"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="145"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="102"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="153" t="s">
+      <c r="F32" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="161"/>
       <c r="S32" s="103"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="102">
         <v>2.4</v>
       </c>
-      <c r="B33" s="152" t="s">
+      <c r="B33" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="143" t="s">
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="143"/>
-      <c r="S33" s="143"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="102"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="154" t="s">
+      <c r="F34" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="154"/>
-      <c r="S34" s="154"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="163"/>
+      <c r="S34" s="163"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="102">
         <v>2.5</v>
       </c>
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="155" t="s">
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="143"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="102"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="153" t="s">
+      <c r="F36" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="161"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161"/>
+      <c r="R36" s="161"/>
+      <c r="S36" s="161"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="87">
         <v>2.6</v>
       </c>
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="143" t="s">
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="145" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="M37" s="143" t="s">
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="M37" s="145" t="s">
         <v>210</v>
       </c>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="143"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="89"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="141" t="s">
+      <c r="F38" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="141"/>
-      <c r="M38" s="143" t="s">
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="M38" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="89"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -5806,141 +5806,141 @@
       <c r="R39" s="94"/>
       <c r="S39" s="86"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="102">
         <v>2.7</v>
       </c>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="143" t="s">
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
       <c r="L40" s="86"/>
-      <c r="M40" s="143" t="s">
+      <c r="M40" s="145" t="s">
         <v>215</v>
       </c>
-      <c r="N40" s="143"/>
-      <c r="O40" s="143"/>
-      <c r="P40" s="143"/>
-      <c r="Q40" s="143"/>
-      <c r="R40" s="143"/>
-      <c r="S40" s="143"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="N40" s="145"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="145"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="102">
         <v>2.8</v>
       </c>
-      <c r="B41" s="152" t="s">
+      <c r="B41" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="143" t="s">
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
-      <c r="O41" s="143"/>
-      <c r="P41" s="143"/>
-      <c r="Q41" s="143"/>
-      <c r="R41" s="143"/>
-      <c r="S41" s="143"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="145"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="102"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="153" t="s">
+      <c r="F42" s="161" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
-      <c r="O42" s="153"/>
-      <c r="P42" s="153"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="153"/>
-      <c r="S42" s="153"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
+      <c r="S42" s="161"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="102">
         <v>2.9</v>
       </c>
-      <c r="B43" s="152" t="s">
+      <c r="B43" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="155" t="s">
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="143"/>
-      <c r="N43" s="143"/>
-      <c r="O43" s="143"/>
-      <c r="P43" s="143"/>
-      <c r="Q43" s="143"/>
-      <c r="R43" s="143"/>
-      <c r="S43" s="143"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="145"/>
+      <c r="P43" s="145"/>
+      <c r="Q43" s="145"/>
+      <c r="R43" s="145"/>
+      <c r="S43" s="145"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="102"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="154" t="s">
+      <c r="F44" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="154"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154"/>
-      <c r="S44" s="154"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1">
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="163"/>
+      <c r="P44" s="163"/>
+      <c r="Q44" s="163"/>
+      <c r="R44" s="163"/>
+      <c r="S44" s="163"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="89"/>
-      <c r="B45" s="160"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="160"/>
-      <c r="E45" s="160"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
       <c r="F45" s="85" t="s">
         <v>139</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="R45" s="105"/>
       <c r="S45" s="105"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="89"/>
       <c r="B46" s="106"/>
       <c r="C46" s="106"/>
@@ -5979,67 +5979,67 @@
       <c r="R46" s="105"/>
       <c r="S46" s="105"/>
     </row>
-    <row r="47" spans="1:19" ht="18.75">
+    <row r="47" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="89"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
       <c r="F47" s="107"/>
-      <c r="G47" s="156">
+      <c r="G47" s="149">
         <v>2011</v>
       </c>
-      <c r="H47" s="161"/>
-      <c r="I47" s="156">
+      <c r="H47" s="150"/>
+      <c r="I47" s="149">
         <v>2012</v>
       </c>
-      <c r="J47" s="161"/>
-      <c r="K47" s="156">
+      <c r="J47" s="150"/>
+      <c r="K47" s="149">
         <v>2013</v>
       </c>
-      <c r="L47" s="161"/>
-      <c r="M47" s="156">
+      <c r="L47" s="150"/>
+      <c r="M47" s="149">
         <v>2014</v>
       </c>
-      <c r="N47" s="161"/>
-      <c r="O47" s="156">
+      <c r="N47" s="150"/>
+      <c r="O47" s="149">
         <v>2015</v>
       </c>
-      <c r="P47" s="157"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="P47" s="151"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="87">
         <v>3</v>
       </c>
-      <c r="B48" s="136" t="s">
+      <c r="B48" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
       <c r="F48" s="108"/>
-      <c r="G48" s="158">
+      <c r="G48" s="157">
         <v>328000000</v>
       </c>
-      <c r="H48" s="159"/>
-      <c r="I48" s="158">
+      <c r="H48" s="158"/>
+      <c r="I48" s="157">
         <v>342000000</v>
       </c>
-      <c r="J48" s="159"/>
-      <c r="K48" s="158">
+      <c r="J48" s="158"/>
+      <c r="K48" s="157">
         <v>385000000</v>
       </c>
-      <c r="L48" s="159"/>
-      <c r="M48" s="158">
+      <c r="L48" s="158"/>
+      <c r="M48" s="157">
         <v>402000000</v>
       </c>
-      <c r="N48" s="159"/>
-      <c r="O48" s="158">
+      <c r="N48" s="158"/>
+      <c r="O48" s="157">
         <v>430000000</v>
       </c>
-      <c r="P48" s="159"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="P48" s="158"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="89"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -6047,71 +6047,71 @@
       <c r="E49" s="33"/>
       <c r="F49" s="109"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="87">
         <v>3.1</v>
       </c>
-      <c r="B50" s="136" t="s">
+      <c r="B50" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="110"/>
-      <c r="G50" s="164">
+      <c r="G50" s="159">
         <v>0</v>
       </c>
-      <c r="H50" s="165"/>
-      <c r="I50" s="164">
+      <c r="H50" s="160"/>
+      <c r="I50" s="159">
         <v>0</v>
       </c>
-      <c r="J50" s="165"/>
-      <c r="K50" s="164">
+      <c r="J50" s="160"/>
+      <c r="K50" s="159">
         <v>0</v>
       </c>
-      <c r="L50" s="165"/>
-      <c r="M50" s="164">
+      <c r="L50" s="160"/>
+      <c r="M50" s="159">
         <v>0</v>
       </c>
-      <c r="N50" s="165"/>
-      <c r="O50" s="164">
+      <c r="N50" s="160"/>
+      <c r="O50" s="159">
         <v>0</v>
       </c>
-      <c r="P50" s="165"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="P50" s="160"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="87">
         <v>3.2</v>
       </c>
-      <c r="B51" s="136" t="s">
+      <c r="B51" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
       <c r="F51" s="111"/>
-      <c r="G51" s="162" t="s">
+      <c r="G51" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="H51" s="163"/>
-      <c r="I51" s="162" t="s">
+      <c r="H51" s="142"/>
+      <c r="I51" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="J51" s="163"/>
-      <c r="K51" s="162" t="s">
+      <c r="J51" s="142"/>
+      <c r="K51" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="L51" s="163"/>
-      <c r="M51" s="162" t="s">
+      <c r="L51" s="142"/>
+      <c r="M51" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="N51" s="163"/>
-      <c r="O51" s="162" t="s">
+      <c r="N51" s="142"/>
+      <c r="O51" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="P51" s="163"/>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="P51" s="142"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="89"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -6119,93 +6119,93 @@
       <c r="E52" s="33"/>
       <c r="F52" s="109"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="87">
         <v>3.3</v>
       </c>
-      <c r="B53" s="136" t="s">
+      <c r="B53" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="152"/>
       <c r="F53" s="108"/>
-      <c r="G53" s="158">
+      <c r="G53" s="157">
         <v>32000</v>
       </c>
-      <c r="H53" s="159"/>
-      <c r="I53" s="158">
+      <c r="H53" s="158"/>
+      <c r="I53" s="157">
         <v>20000</v>
       </c>
-      <c r="J53" s="159"/>
-      <c r="K53" s="158">
+      <c r="J53" s="158"/>
+      <c r="K53" s="157">
         <v>36000</v>
       </c>
-      <c r="L53" s="159"/>
-      <c r="M53" s="158">
+      <c r="L53" s="158"/>
+      <c r="M53" s="157">
         <v>48000</v>
       </c>
-      <c r="N53" s="159"/>
-      <c r="O53" s="158">
+      <c r="N53" s="158"/>
+      <c r="O53" s="157">
         <v>86000</v>
       </c>
-      <c r="P53" s="159"/>
+      <c r="P53" s="158"/>
       <c r="S53" s="112"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="87">
         <v>3.4</v>
       </c>
-      <c r="B54" s="152" t="s">
+      <c r="B54" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="152"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="108"/>
-      <c r="G54" s="158">
+      <c r="G54" s="157">
         <v>0</v>
       </c>
-      <c r="H54" s="159"/>
-      <c r="I54" s="158">
+      <c r="H54" s="158"/>
+      <c r="I54" s="157">
         <v>0</v>
       </c>
-      <c r="J54" s="159"/>
-      <c r="K54" s="158">
+      <c r="J54" s="158"/>
+      <c r="K54" s="157">
         <v>0</v>
       </c>
-      <c r="L54" s="159"/>
-      <c r="M54" s="158">
+      <c r="L54" s="158"/>
+      <c r="M54" s="157">
         <v>0</v>
       </c>
-      <c r="N54" s="159"/>
-      <c r="O54" s="158">
+      <c r="N54" s="158"/>
+      <c r="O54" s="157">
         <v>0</v>
       </c>
-      <c r="P54" s="159"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="P54" s="158"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="89"/>
       <c r="B55" s="89"/>
       <c r="C55" s="89"/>
       <c r="D55" s="89"/>
       <c r="E55" s="89"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="89"/>
       <c r="B56" s="89"/>
       <c r="C56" s="89"/>
       <c r="D56" s="89"/>
       <c r="E56" s="89"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="89"/>
       <c r="B57" s="89"/>
       <c r="C57" s="89"/>
       <c r="D57" s="89"/>
       <c r="E57" s="89"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="89"/>
       <c r="B58" s="89"/>
       <c r="C58" s="89"/>
@@ -6224,38 +6224,38 @@
       <c r="R58" s="86"/>
       <c r="S58" s="86"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="87">
         <v>3.5</v>
       </c>
-      <c r="B59" s="168" t="s">
+      <c r="B59" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
       <c r="F59" s="86"/>
-      <c r="G59" s="169" t="s">
+      <c r="G59" s="146" t="s">
         <v>191</v>
       </c>
-      <c r="H59" s="169"/>
-      <c r="I59" s="169"/>
-      <c r="J59" s="169"/>
-      <c r="K59" s="142" t="s">
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="146"/>
+      <c r="K59" s="156" t="s">
         <v>145</v>
       </c>
-      <c r="L59" s="142"/>
-      <c r="M59" s="142"/>
-      <c r="N59" s="169">
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="146">
         <v>260</v>
       </c>
-      <c r="O59" s="169"/>
-      <c r="P59" s="169"/>
+      <c r="O59" s="146"/>
+      <c r="P59" s="146"/>
       <c r="Q59" s="86"/>
       <c r="R59" s="113"/>
       <c r="S59" s="113"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="89"/>
       <c r="B60" s="89"/>
       <c r="C60" s="89"/>
@@ -6264,68 +6264,68 @@
       <c r="F60" s="86"/>
       <c r="G60" s="86"/>
     </row>
-    <row r="61" spans="1:19" ht="18.75">
+    <row r="61" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="87"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
       <c r="F61" s="114"/>
-      <c r="G61" s="156">
+      <c r="G61" s="149">
         <v>2011</v>
       </c>
-      <c r="H61" s="161"/>
-      <c r="I61" s="156">
+      <c r="H61" s="150"/>
+      <c r="I61" s="149">
         <v>2012</v>
       </c>
-      <c r="J61" s="161"/>
-      <c r="K61" s="156">
+      <c r="J61" s="150"/>
+      <c r="K61" s="149">
         <v>2013</v>
       </c>
-      <c r="L61" s="161"/>
-      <c r="M61" s="156">
+      <c r="L61" s="150"/>
+      <c r="M61" s="149">
         <v>2014</v>
       </c>
-      <c r="N61" s="161"/>
-      <c r="O61" s="156">
+      <c r="N61" s="150"/>
+      <c r="O61" s="149">
         <v>2015</v>
       </c>
-      <c r="P61" s="157"/>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="P61" s="151"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="87">
         <v>3.6</v>
       </c>
-      <c r="B62" s="139" t="s">
+      <c r="B62" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="139"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
       <c r="F62" s="115"/>
-      <c r="G62" s="166">
+      <c r="G62" s="153">
         <v>220</v>
       </c>
-      <c r="H62" s="167"/>
-      <c r="I62" s="166">
+      <c r="H62" s="154"/>
+      <c r="I62" s="153">
         <v>226</v>
       </c>
-      <c r="J62" s="167"/>
-      <c r="K62" s="166">
+      <c r="J62" s="154"/>
+      <c r="K62" s="153">
         <v>230</v>
       </c>
-      <c r="L62" s="167"/>
-      <c r="M62" s="166">
+      <c r="L62" s="154"/>
+      <c r="M62" s="153">
         <v>245</v>
       </c>
-      <c r="N62" s="167"/>
-      <c r="O62" s="166">
+      <c r="N62" s="154"/>
+      <c r="O62" s="153">
         <v>260</v>
       </c>
-      <c r="P62" s="167"/>
+      <c r="P62" s="154"/>
       <c r="R62" s="116"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="89"/>
       <c r="B63" s="89"/>
       <c r="C63" s="89"/>
@@ -6344,7 +6344,7 @@
       <c r="P63" s="115"/>
       <c r="Q63" s="115"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="89"/>
       <c r="B64" s="89"/>
       <c r="C64" s="89"/>
@@ -6352,28 +6352,28 @@
       <c r="E64" s="89"/>
       <c r="F64" s="99"/>
     </row>
-    <row r="65" spans="1:19" ht="18.75">
+    <row r="65" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="92"/>
       <c r="B65" s="89"/>
       <c r="C65" s="89"/>
       <c r="D65" s="89"/>
       <c r="E65" s="89"/>
-      <c r="H65" s="156">
+      <c r="H65" s="149">
         <v>2015</v>
       </c>
-      <c r="I65" s="161"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="161"/>
-      <c r="M65" s="161"/>
-      <c r="N65" s="157"/>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="I65" s="150"/>
+      <c r="J65" s="150"/>
+      <c r="K65" s="150"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="150"/>
+      <c r="N65" s="151"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="89"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="152"/>
+      <c r="E66" s="152"/>
       <c r="I66" s="117" t="s">
         <v>147</v>
       </c>
@@ -6388,16 +6388,16 @@
       </c>
       <c r="S66" s="113"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="87">
         <v>3.7</v>
       </c>
-      <c r="B67" s="139" t="s">
+      <c r="B67" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="139"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="139"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="136"/>
+      <c r="E67" s="136"/>
       <c r="H67" s="118"/>
       <c r="I67" s="135">
         <v>1</v>
@@ -6416,16 +6416,16 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="87">
         <v>3.8</v>
       </c>
-      <c r="B68" s="139" t="s">
+      <c r="B68" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="139"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="139"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="136"/>
       <c r="H68" s="118"/>
       <c r="I68" s="119">
         <v>2</v>
@@ -6444,16 +6444,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="87">
         <v>3.9</v>
       </c>
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="136" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="139"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="139"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="136"/>
       <c r="H69" s="118"/>
       <c r="I69" s="119">
         <v>0</v>
@@ -6472,14 +6472,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="18.75">
+    <row r="70" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="87"/>
-      <c r="B70" s="139" t="s">
+      <c r="B70" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="139"/>
-      <c r="D70" s="139"/>
-      <c r="E70" s="139"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="136"/>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
       <c r="H70" s="93"/>
@@ -6493,7 +6493,7 @@
       <c r="P70" s="94"/>
       <c r="Q70" s="94"/>
     </row>
-    <row r="71" spans="1:19" ht="18.75">
+    <row r="71" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="87"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -6512,7 +6512,7 @@
       <c r="P71" s="94"/>
       <c r="Q71" s="94"/>
     </row>
-    <row r="72" spans="1:19" ht="19.5" thickBot="1">
+    <row r="72" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="102">
         <v>4</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="P72" s="94"/>
       <c r="Q72" s="94"/>
     </row>
-    <row r="73" spans="1:19" ht="18.75">
+    <row r="73" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="89"/>
       <c r="B73" s="122"/>
       <c r="C73" s="122"/>
@@ -6542,75 +6542,75 @@
       <c r="P73" s="94"/>
       <c r="Q73" s="94"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="89"/>
       <c r="B74" s="125"/>
       <c r="C74" s="125"/>
       <c r="D74" s="125"/>
       <c r="E74" s="125"/>
-      <c r="F74" s="169" t="s">
+      <c r="F74" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="169"/>
-      <c r="H74" s="169"/>
-      <c r="I74" s="169"/>
-      <c r="J74" s="169"/>
-      <c r="K74" s="169"/>
+      <c r="G74" s="146"/>
+      <c r="H74" s="146"/>
+      <c r="I74" s="146"/>
+      <c r="J74" s="146"/>
+      <c r="K74" s="146"/>
       <c r="P74" s="94"/>
       <c r="Q74" s="94"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="89"/>
       <c r="B75" s="125"/>
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
       <c r="E75" s="125"/>
-      <c r="F75" s="169" t="s">
+      <c r="F75" s="146" t="s">
         <v>193</v>
       </c>
-      <c r="G75" s="169"/>
-      <c r="H75" s="169"/>
-      <c r="I75" s="169"/>
-      <c r="J75" s="169"/>
-      <c r="K75" s="169"/>
+      <c r="G75" s="146"/>
+      <c r="H75" s="146"/>
+      <c r="I75" s="146"/>
+      <c r="J75" s="146"/>
+      <c r="K75" s="146"/>
       <c r="P75" s="94"/>
       <c r="Q75" s="94"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="89"/>
       <c r="B76" s="125"/>
       <c r="C76" s="125"/>
       <c r="D76" s="125"/>
       <c r="E76" s="125"/>
-      <c r="F76" s="169" t="s">
+      <c r="F76" s="146" t="s">
         <v>194</v>
       </c>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="169"/>
-      <c r="K76" s="169"/>
+      <c r="G76" s="146"/>
+      <c r="H76" s="146"/>
+      <c r="I76" s="146"/>
+      <c r="J76" s="146"/>
+      <c r="K76" s="146"/>
       <c r="P76" s="94"/>
       <c r="Q76" s="94"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="89"/>
       <c r="B77" s="125"/>
       <c r="C77" s="125"/>
       <c r="D77" s="125"/>
       <c r="E77" s="125"/>
-      <c r="F77" s="169" t="s">
+      <c r="F77" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="G77" s="169"/>
-      <c r="H77" s="169"/>
-      <c r="I77" s="169"/>
-      <c r="J77" s="169"/>
-      <c r="K77" s="169"/>
+      <c r="G77" s="146"/>
+      <c r="H77" s="146"/>
+      <c r="I77" s="146"/>
+      <c r="J77" s="146"/>
+      <c r="K77" s="146"/>
       <c r="P77" s="94"/>
       <c r="Q77" s="94"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="89"/>
       <c r="B78" s="106"/>
       <c r="C78" s="106"/>
@@ -6628,7 +6628,7 @@
       <c r="P78" s="94"/>
       <c r="Q78" s="94"/>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1">
+    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="89"/>
       <c r="B79" s="89"/>
       <c r="C79" s="89"/>
@@ -6650,7 +6650,7 @@
       <c r="P79" s="85"/>
       <c r="Q79" s="85"/>
     </row>
-    <row r="80" spans="1:19" ht="18.75">
+    <row r="80" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="89"/>
       <c r="B80" s="106"/>
       <c r="C80" s="106"/>
@@ -6660,8 +6660,8 @@
       <c r="K80" s="121"/>
       <c r="L80" s="121"/>
     </row>
-    <row r="81" spans="1:19" ht="18.75">
-      <c r="A81" s="170">
+    <row r="81" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="147">
         <v>4.0999999999999996</v>
       </c>
       <c r="B81" s="106"/>
@@ -6672,8 +6672,8 @@
       <c r="K81" s="121"/>
       <c r="L81" s="121"/>
     </row>
-    <row r="82" spans="1:19">
-      <c r="A82" s="170"/>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="147"/>
       <c r="B82" s="89"/>
       <c r="C82" s="89"/>
       <c r="D82" s="89"/>
@@ -6684,128 +6684,128 @@
       <c r="I82" s="97"/>
       <c r="J82" s="97"/>
       <c r="K82" s="113"/>
-      <c r="L82" s="171"/>
-      <c r="M82" s="171"/>
-      <c r="N82" s="171"/>
-      <c r="O82" s="171"/>
-      <c r="P82" s="171"/>
-      <c r="Q82" s="171"/>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="L82" s="148"/>
+      <c r="M82" s="148"/>
+      <c r="N82" s="148"/>
+      <c r="O82" s="148"/>
+      <c r="P82" s="148"/>
+      <c r="Q82" s="148"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="89"/>
-      <c r="B83" s="139" t="s">
+      <c r="B83" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="139"/>
-      <c r="D83" s="139"/>
-      <c r="E83" s="139"/>
-      <c r="F83" s="143" t="s">
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="G83" s="143"/>
-      <c r="H83" s="143"/>
-      <c r="I83" s="143"/>
-      <c r="J83" s="143"/>
+      <c r="G83" s="145"/>
+      <c r="H83" s="145"/>
+      <c r="I83" s="145"/>
+      <c r="J83" s="145"/>
       <c r="K83" s="126"/>
-      <c r="L83" s="143" t="s">
+      <c r="L83" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="M83" s="143"/>
-      <c r="N83" s="143"/>
-      <c r="O83" s="143"/>
-      <c r="P83" s="143"/>
-      <c r="Q83" s="143"/>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="M83" s="145"/>
+      <c r="N83" s="145"/>
+      <c r="O83" s="145"/>
+      <c r="P83" s="145"/>
+      <c r="Q83" s="145"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="89"/>
-      <c r="B84" s="139" t="s">
+      <c r="B84" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="139"/>
-      <c r="D84" s="139"/>
-      <c r="E84" s="139"/>
-      <c r="F84" s="141" t="s">
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="G84" s="141"/>
-      <c r="H84" s="141"/>
-      <c r="I84" s="141"/>
-      <c r="J84" s="141"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="137"/>
       <c r="K84" s="126"/>
-      <c r="L84" s="143" t="s">
+      <c r="L84" s="145" t="s">
         <v>200</v>
       </c>
-      <c r="M84" s="143"/>
-      <c r="N84" s="143"/>
-      <c r="O84" s="143"/>
-      <c r="P84" s="143"/>
-      <c r="Q84" s="143"/>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="M84" s="145"/>
+      <c r="N84" s="145"/>
+      <c r="O84" s="145"/>
+      <c r="P84" s="145"/>
+      <c r="Q84" s="145"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="89"/>
-      <c r="B85" s="139" t="s">
+      <c r="B85" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="139"/>
-      <c r="D85" s="139"/>
-      <c r="E85" s="139"/>
-      <c r="F85" s="147" t="s">
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="G85" s="141"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="141"/>
-      <c r="J85" s="141"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="137"/>
       <c r="K85" s="126"/>
-      <c r="L85" s="172" t="s">
+      <c r="L85" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="M85" s="143"/>
-      <c r="N85" s="143"/>
-      <c r="O85" s="143"/>
-      <c r="P85" s="143"/>
-      <c r="Q85" s="143"/>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="M85" s="145"/>
+      <c r="N85" s="145"/>
+      <c r="O85" s="145"/>
+      <c r="P85" s="145"/>
+      <c r="Q85" s="145"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="89"/>
-      <c r="B86" s="139" t="s">
+      <c r="B86" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="139"/>
-      <c r="D86" s="139"/>
-      <c r="E86" s="139"/>
-      <c r="F86" s="141" t="s">
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="G86" s="141"/>
-      <c r="H86" s="141"/>
-      <c r="I86" s="141"/>
-      <c r="J86" s="141"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
       <c r="K86" s="126"/>
-      <c r="L86" s="143" t="s">
+      <c r="L86" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="M86" s="143"/>
-      <c r="N86" s="143"/>
-      <c r="O86" s="143"/>
-      <c r="P86" s="143"/>
-      <c r="Q86" s="143"/>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="M86" s="145"/>
+      <c r="N86" s="145"/>
+      <c r="O86" s="145"/>
+      <c r="P86" s="145"/>
+      <c r="Q86" s="145"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="89"/>
-      <c r="B87" s="139" t="s">
+      <c r="B87" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="139"/>
-      <c r="D87" s="139"/>
-      <c r="E87" s="139"/>
-      <c r="F87" s="141" t="s">
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="G87" s="141"/>
-      <c r="H87" s="141"/>
-      <c r="I87" s="141"/>
-      <c r="J87" s="141"/>
+      <c r="G87" s="137"/>
+      <c r="H87" s="137"/>
+      <c r="I87" s="137"/>
+      <c r="J87" s="137"/>
       <c r="L87" s="86"/>
       <c r="M87" s="86"/>
       <c r="N87" s="86"/>
@@ -6813,7 +6813,7 @@
       <c r="P87" s="86"/>
       <c r="Q87" s="86"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="89"/>
       <c r="B88" s="89"/>
       <c r="C88" s="89"/>
@@ -6822,74 +6822,74 @@
       <c r="K88" s="86"/>
       <c r="L88" s="86"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="87">
         <v>4.2</v>
       </c>
-      <c r="B89" s="152" t="s">
+      <c r="B89" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="152"/>
-      <c r="D89" s="152"/>
-      <c r="E89" s="152"/>
-    </row>
-    <row r="90" spans="1:19" ht="18.75">
+      <c r="C89" s="138"/>
+      <c r="D89" s="138"/>
+      <c r="E89" s="138"/>
+    </row>
+    <row r="90" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="89"/>
-      <c r="B90" s="152"/>
-      <c r="C90" s="152"/>
-      <c r="D90" s="152"/>
-      <c r="E90" s="152"/>
-      <c r="G90" s="173" t="s">
+      <c r="B90" s="138"/>
+      <c r="C90" s="138"/>
+      <c r="D90" s="138"/>
+      <c r="E90" s="138"/>
+      <c r="G90" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="H90" s="173"/>
-      <c r="I90" s="173" t="s">
+      <c r="H90" s="139"/>
+      <c r="I90" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="J90" s="173"/>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="J90" s="139"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="89"/>
-      <c r="B91" s="174" t="s">
+      <c r="B91" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="174"/>
-      <c r="D91" s="174"/>
-      <c r="E91" s="174"/>
-      <c r="G91" s="162"/>
-      <c r="H91" s="163"/>
-      <c r="I91" s="162"/>
-      <c r="J91" s="163"/>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="140"/>
+      <c r="G91" s="141"/>
+      <c r="H91" s="142"/>
+      <c r="I91" s="141"/>
+      <c r="J91" s="142"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="89"/>
-      <c r="B92" s="174"/>
-      <c r="C92" s="174"/>
-      <c r="D92" s="174"/>
-      <c r="E92" s="174"/>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="B92" s="140"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="89"/>
       <c r="B93" s="89"/>
       <c r="C93" s="89"/>
       <c r="D93" s="89"/>
       <c r="E93" s="89"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="89"/>
       <c r="B94" s="89"/>
       <c r="C94" s="89"/>
       <c r="D94" s="89"/>
       <c r="E94" s="89"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="89"/>
       <c r="B95" s="89"/>
       <c r="C95" s="89"/>
       <c r="D95" s="89"/>
       <c r="E95" s="89"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="134" t="s">
         <v>189</v>
       </c>
@@ -6911,85 +6911,87 @@
       <c r="R96" s="86"/>
       <c r="S96" s="86"/>
     </row>
-    <row r="1048576" spans="5:5">
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048576" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="B89:E90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="B91:E92"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="L85:Q85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="L86:Q86"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="L83:Q83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="L84:Q84"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F77:K77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="H65:N65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="F32:R32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:S33"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:S41"/>
+    <mergeCell ref="F34:S34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:S35"/>
+    <mergeCell ref="F36:S36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="M37:S37"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="G48:H48"/>
@@ -7007,80 +7009,78 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M47:N47"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:S41"/>
-    <mergeCell ref="F34:S34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:S35"/>
-    <mergeCell ref="F36:S36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="F32:R32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:S33"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="L85:Q85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="L86:Q86"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="L83:Q83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="L84:Q84"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="B89:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="B91:E92"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:J85"/>
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="Ingresar al menos 150 caracteres, sin contar espacios" sqref="F43:S43">
@@ -7117,7 +7117,7 @@
       <formula1>LEN(TRIM(F33))&gt;200</formula1>
     </dataValidation>
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" error="Ingresar al menos 200 caracteres" sqref="F15:S16"/>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura " error="Ingresar al menos 150 caracteres (no cuentan los espacios)&#10;&#10;" sqref="F31:F32 S32">
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura " error="Ingresar al menos 150 caracteres (no cuentan los espacios)_x000a__x000a_" sqref="F31:F32 S32">
       <formula1>LEN(TRIM(F31))&gt;150</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="Debe ser mayor o igual al número de empleos dados de alta" sqref="O62:P62">
@@ -7145,7 +7145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:S1048560"/>
   <sheetViews>
@@ -7153,7 +7153,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="73" customWidth="1"/>
     <col min="2" max="2" width="44" style="73" bestFit="1" customWidth="1"/>
@@ -7167,10 +7167,10 @@
     <col min="20" max="16384" width="11.42578125" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A1" s="175"/>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
+    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="180"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7182,7 +7182,7 @@
       <c r="L1" s="68"/>
       <c r="M1" s="68"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7197,11 +7197,11 @@
       <c r="L2" s="69"/>
       <c r="M2" s="69"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="177" t="s">
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="177"/>
+      <c r="B3" s="179"/>
       <c r="C3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -7214,7 +7214,7 @@
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -7235,7 +7235,7 @@
       <c r="L4" s="70"/>
       <c r="M4" s="71"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1.2</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="L5" s="70"/>
       <c r="M5" s="71"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1.3</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="L6" s="70"/>
       <c r="M6" s="71"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1.4</v>
       </c>
@@ -7298,7 +7298,7 @@
       <c r="L7" s="72"/>
       <c r="M7" s="71"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1.5</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="L8" s="70"/>
       <c r="M8" s="71"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1.6</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="L9" s="70"/>
       <c r="M9" s="71"/>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1.7</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="L10" s="70"/>
       <c r="M10" s="71"/>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1.8</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="L11" s="70"/>
       <c r="M11" s="71"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="54" t="s">
@@ -7397,7 +7397,7 @@
       <c r="L12" s="72"/>
       <c r="M12" s="71"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
@@ -7412,11 +7412,11 @@
       <c r="L13" s="71"/>
       <c r="M13" s="69"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="177" t="s">
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="177"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -7429,7 +7429,7 @@
       <c r="L14" s="69"/>
       <c r="M14" s="69"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1.9</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="L15" s="69"/>
       <c r="M15" s="69"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="L16" s="69"/>
       <c r="M16" s="69"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2.1</v>
       </c>
@@ -7494,7 +7494,7 @@
       <c r="L17" s="69"/>
       <c r="M17" s="69"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2.2000000000000002</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="L18" s="69"/>
       <c r="M18" s="69"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="L19" s="69"/>
       <c r="M19" s="69"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="18"/>
@@ -7543,18 +7543,18 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="177" t="s">
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="177"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>2.4</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="F22" s="39"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="2.25" customHeight="1">
+    <row r="23" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="35"/>
       <c r="C23" s="1"/>
@@ -7578,7 +7578,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="26"/>
       <c r="C24" s="36"/>
@@ -7587,7 +7587,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>2.5</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="11.25" customHeight="1">
+    <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="26"/>
       <c r="C26" s="36"/>
@@ -7609,7 +7609,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="35"/>
       <c r="C27" s="40"/>
@@ -7618,7 +7618,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>2.6</v>
       </c>
@@ -7631,7 +7631,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="18"/>
@@ -7640,7 +7640,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="30">
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="46">
         <v>2.7</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="33"/>
       <c r="C31" s="41" t="s">
@@ -7666,7 +7666,7 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="41" t="s">
@@ -7677,7 +7677,7 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="41" t="s">
@@ -7688,7 +7688,7 @@
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="18"/>
@@ -7697,11 +7697,11 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="18.75">
-      <c r="A35" s="177" t="s">
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="177"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="178"/>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H35" s="74"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>2.8</v>
       </c>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>2.9</v>
       </c>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>3</v>
       </c>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>3.1</v>
       </c>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>3.2</v>
       </c>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="18"/>
@@ -7795,7 +7795,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:8" ht="33.75" customHeight="1">
+    <row r="42" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>3.3</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:8" ht="6" customHeight="1">
+    <row r="43" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="32"/>
@@ -7817,7 +7817,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:8" ht="21" customHeight="1">
+    <row r="44" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="44" t="s">
         <v>79</v>
@@ -7828,7 +7828,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="45"/>
@@ -7837,18 +7837,18 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="18.75">
-      <c r="A46" s="177" t="s">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="177"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:8" ht="30">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
         <v>3.4</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:8" ht="30">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="46">
         <v>3.5</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="46">
         <v>3.6</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="18"/>
@@ -7896,11 +7896,11 @@
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" ht="18.75">
-      <c r="A51" s="177" t="s">
+    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="177"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="G51" s="80"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>3.7</v>
       </c>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="G52" s="30"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="49" t="s">
         <v>83</v>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="G53" s="30"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="42" t="s">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="G54" s="30"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="42" t="s">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="G55" s="30"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="42" t="s">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="G56" s="30"/>
     </row>
-    <row r="57" spans="1:7" ht="29.25" customHeight="1">
+    <row r="57" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
         <v>3.8</v>
       </c>
@@ -7993,7 +7993,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="51" t="s">
@@ -8004,7 +8004,7 @@
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
     </row>
-    <row r="59" spans="1:7" ht="26.25" customHeight="1">
+    <row r="59" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>3.9</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="51" t="s">
@@ -8028,7 +8028,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" ht="27.75" customHeight="1">
+    <row r="61" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>4</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="51" t="s">
@@ -8052,7 +8052,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" ht="30">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="46">
         <v>4.0999999999999996</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="1"/>
@@ -8074,7 +8074,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:16" ht="31.5" customHeight="1">
+    <row r="65" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46">
         <v>4.2</v>
       </c>
@@ -8091,7 +8091,7 @@
       <c r="F65" s="57"/>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
       <c r="B66" s="26"/>
       <c r="C66" s="30" t="s">
@@ -8104,7 +8104,7 @@
       <c r="F66" s="30"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="30" t="s">
@@ -8117,18 +8117,18 @@
       <c r="F67" s="30"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A68" s="177" t="s">
+    <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="177"/>
+      <c r="B68" s="179"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:16" ht="30">
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="46">
         <v>4.3</v>
       </c>
@@ -8141,7 +8141,7 @@
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
     </row>
-    <row r="70" spans="1:16" ht="14.1" customHeight="1">
+    <row r="70" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
       <c r="B70" s="35" t="s">
         <v>113</v>
@@ -8154,7 +8154,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="51" t="s">
@@ -8165,7 +8165,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="51" t="s">
@@ -8176,7 +8176,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="51"/>
@@ -8185,7 +8185,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="30">
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="46">
         <v>4.4000000000000004</v>
       </c>
@@ -8195,58 +8195,58 @@
       <c r="C74" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="179" t="s">
+      <c r="D74" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="179"/>
+      <c r="E74" s="175"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
     </row>
-    <row r="75" spans="1:16" ht="84">
+    <row r="75" spans="1:16" ht="84" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="81"/>
       <c r="C75" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="180"/>
-      <c r="E75" s="181"/>
+      <c r="D75" s="176"/>
+      <c r="E75" s="177"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:16" ht="96">
+    <row r="76" spans="1:16" ht="96" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="180"/>
-      <c r="E76" s="181"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="177"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
     </row>
-    <row r="77" spans="1:16" ht="96">
+    <row r="77" spans="1:16" ht="96" x14ac:dyDescent="0.25">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="180"/>
-      <c r="E77" s="181"/>
+      <c r="D77" s="176"/>
+      <c r="E77" s="177"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:16" ht="108">
+    <row r="78" spans="1:16" ht="108" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D78" s="180"/>
-      <c r="E78" s="181"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="177"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="1:16" ht="9.75" customHeight="1">
+    <row r="79" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="52"/>
@@ -8255,11 +8255,11 @@
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:16" s="71" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A80" s="176" t="s">
+    <row r="80" spans="1:16" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="176"/>
+      <c r="B80" s="181"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -8275,7 +8275,7 @@
       <c r="O80" s="75"/>
       <c r="P80" s="75"/>
     </row>
-    <row r="81" spans="1:19" ht="28.5" customHeight="1">
+    <row r="81" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48">
         <v>4.5</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="R81" s="71"/>
       <c r="S81" s="71"/>
     </row>
-    <row r="82" spans="1:19" ht="15.75" customHeight="1">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="52" t="s">
@@ -8319,7 +8319,7 @@
       <c r="L82" s="69"/>
       <c r="M82" s="69"/>
     </row>
-    <row r="83" spans="1:19" s="60" customFormat="1" ht="9" customHeight="1">
+    <row r="83" spans="1:19" s="60" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="4"/>
@@ -8337,7 +8337,7 @@
       <c r="O83" s="62"/>
       <c r="P83" s="62"/>
     </row>
-    <row r="84" spans="1:19" s="60" customFormat="1" ht="31.5" customHeight="1">
+    <row r="84" spans="1:19" s="60" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48">
         <v>4.5999999999999996</v>
       </c>
@@ -8361,7 +8361,7 @@
       <c r="O84" s="62"/>
       <c r="P84" s="63"/>
     </row>
-    <row r="85" spans="1:19" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="85" spans="1:19" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="20"/>
       <c r="C85" s="53" t="s">
@@ -8377,7 +8377,7 @@
       <c r="N85" s="63"/>
       <c r="O85" s="63"/>
     </row>
-    <row r="86" spans="1:19" s="60" customFormat="1" ht="6.75" customHeight="1">
+    <row r="86" spans="1:19" s="60" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="1"/>
@@ -8386,7 +8386,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:19" s="60" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:19" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>4.7</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="O87" s="63"/>
       <c r="P87" s="63"/>
     </row>
-    <row r="88" spans="1:19" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="88" spans="1:19" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="52" t="s">
@@ -8429,7 +8429,7 @@
       <c r="L88" s="61"/>
       <c r="M88" s="61"/>
     </row>
-    <row r="89" spans="1:19" s="59" customFormat="1">
+    <row r="89" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="21"/>
       <c r="C89" s="18"/>
@@ -8444,7 +8444,7 @@
       <c r="L89" s="61"/>
       <c r="M89" s="61"/>
     </row>
-    <row r="90" spans="1:19" s="59" customFormat="1">
+    <row r="90" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>4.8</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="L90" s="61"/>
       <c r="M90" s="61"/>
     </row>
-    <row r="91" spans="1:19" s="59" customFormat="1" ht="12.75" customHeight="1">
+    <row r="91" spans="1:19" s="59" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="21"/>
       <c r="C91" s="27" t="s">
@@ -8482,7 +8482,7 @@
       <c r="L91" s="61"/>
       <c r="M91" s="61"/>
     </row>
-    <row r="92" spans="1:19" s="59" customFormat="1">
+    <row r="92" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="21"/>
       <c r="C92" s="18"/>
@@ -8497,7 +8497,7 @@
       <c r="L92" s="61"/>
       <c r="M92" s="61"/>
     </row>
-    <row r="93" spans="1:19" s="59" customFormat="1">
+    <row r="93" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>4.9000000000000004</v>
       </c>
@@ -8518,7 +8518,7 @@
       <c r="L93" s="61"/>
       <c r="M93" s="61"/>
     </row>
-    <row r="94" spans="1:19" s="59" customFormat="1">
+    <row r="94" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="30" t="s">
@@ -8535,7 +8535,7 @@
       <c r="L94" s="61"/>
       <c r="M94" s="61"/>
     </row>
-    <row r="95" spans="1:19" s="59" customFormat="1">
+    <row r="95" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="30" t="s">
@@ -8552,7 +8552,7 @@
       <c r="L95" s="61"/>
       <c r="M95" s="61"/>
     </row>
-    <row r="96" spans="1:19" s="59" customFormat="1">
+    <row r="96" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="30" t="s">
@@ -8569,7 +8569,7 @@
       <c r="L96" s="61"/>
       <c r="M96" s="61"/>
     </row>
-    <row r="97" spans="1:13" s="59" customFormat="1" ht="30">
+    <row r="97" spans="1:13" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="46">
         <v>5</v>
       </c>
@@ -8588,7 +8588,7 @@
       <c r="L97" s="61"/>
       <c r="M97" s="61"/>
     </row>
-    <row r="98" spans="1:13" s="59" customFormat="1" ht="30">
+    <row r="98" spans="1:13" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="46">
         <v>5.0999999999999996</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="L98" s="61"/>
       <c r="M98" s="61"/>
     </row>
-    <row r="99" spans="1:13" s="59" customFormat="1" ht="30">
+    <row r="99" spans="1:13" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="46">
         <v>5.2</v>
       </c>
@@ -8626,7 +8626,7 @@
       <c r="L99" s="61"/>
       <c r="M99" s="61"/>
     </row>
-    <row r="100" spans="1:13" s="59" customFormat="1">
+    <row r="100" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="33"/>
       <c r="B100" s="33"/>
       <c r="C100" s="18"/>
@@ -8641,72 +8641,72 @@
       <c r="L100" s="61"/>
       <c r="M100" s="61"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="77"/>
       <c r="B101" s="77"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="77"/>
       <c r="B102" s="77"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="77"/>
       <c r="B103" s="77"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="77"/>
       <c r="B104" s="77"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="77"/>
       <c r="B105" s="77"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="77"/>
       <c r="B106" s="77"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="77"/>
       <c r="B107" s="77"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="77"/>
       <c r="B108" s="77"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="77"/>
       <c r="B109" s="77"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="77"/>
       <c r="B110" s="77"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="77"/>
       <c r="B111" s="77"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="77"/>
       <c r="B112" s="77"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="77"/>
       <c r="B113" s="77"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="77"/>
       <c r="B114" s="77"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="77"/>
       <c r="B115" s="77"/>
     </row>
-    <row r="1048548" spans="2:13">
+    <row r="1048548" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K1048548" s="69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="1048549" spans="2:13">
+    <row r="1048549" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H1048549" s="73" t="s">
         <v>23</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1048550" spans="2:13" s="78" customFormat="1">
+    <row r="1048550" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048550" s="73"/>
       <c r="C1048550" s="73"/>
       <c r="D1048550" s="73"/>
@@ -8742,7 +8742,7 @@
       <c r="L1048550" s="73"/>
       <c r="M1048550" s="73"/>
     </row>
-    <row r="1048551" spans="2:13" s="78" customFormat="1">
+    <row r="1048551" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048551" s="73"/>
       <c r="C1048551" s="73"/>
       <c r="D1048551" s="73"/>
@@ -8764,7 +8764,7 @@
       <c r="L1048551" s="73"/>
       <c r="M1048551" s="73"/>
     </row>
-    <row r="1048552" spans="2:13" s="78" customFormat="1">
+    <row r="1048552" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048552" s="73"/>
       <c r="C1048552" s="73"/>
       <c r="D1048552" s="73"/>
@@ -8786,7 +8786,7 @@
       <c r="L1048552" s="73"/>
       <c r="M1048552" s="73"/>
     </row>
-    <row r="1048553" spans="2:13" s="78" customFormat="1">
+    <row r="1048553" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048553" s="73"/>
       <c r="C1048553" s="73"/>
       <c r="D1048553" s="73"/>
@@ -8806,7 +8806,7 @@
       <c r="L1048553" s="73"/>
       <c r="M1048553" s="73"/>
     </row>
-    <row r="1048554" spans="2:13" s="78" customFormat="1">
+    <row r="1048554" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048554" s="73"/>
       <c r="C1048554" s="73"/>
       <c r="D1048554" s="73"/>
@@ -8826,7 +8826,7 @@
       <c r="L1048554" s="73"/>
       <c r="M1048554" s="73"/>
     </row>
-    <row r="1048555" spans="2:13" s="78" customFormat="1">
+    <row r="1048555" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048555" s="73"/>
       <c r="C1048555" s="73"/>
       <c r="D1048555" s="73"/>
@@ -8842,7 +8842,7 @@
       <c r="L1048555" s="73"/>
       <c r="M1048555" s="73"/>
     </row>
-    <row r="1048556" spans="2:13" s="78" customFormat="1">
+    <row r="1048556" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048556" s="73"/>
       <c r="C1048556" s="73"/>
       <c r="D1048556" s="73"/>
@@ -8858,7 +8858,7 @@
       <c r="L1048556" s="73"/>
       <c r="M1048556" s="73"/>
     </row>
-    <row r="1048557" spans="2:13" s="78" customFormat="1">
+    <row r="1048557" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048557" s="73"/>
       <c r="C1048557" s="73"/>
       <c r="D1048557" s="73"/>
@@ -8874,7 +8874,7 @@
       <c r="L1048557" s="73"/>
       <c r="M1048557" s="73"/>
     </row>
-    <row r="1048558" spans="2:13" s="78" customFormat="1">
+    <row r="1048558" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048558" s="73"/>
       <c r="C1048558" s="73"/>
       <c r="D1048558" s="73"/>
@@ -8890,7 +8890,7 @@
       <c r="L1048558" s="73"/>
       <c r="M1048558" s="73"/>
     </row>
-    <row r="1048559" spans="2:13" s="78" customFormat="1">
+    <row r="1048559" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048559" s="73"/>
       <c r="C1048559" s="73"/>
       <c r="D1048559" s="73"/>
@@ -8906,7 +8906,7 @@
       <c r="L1048559" s="73"/>
       <c r="M1048559" s="73"/>
     </row>
-    <row r="1048560" spans="2:13" s="78" customFormat="1">
+    <row r="1048560" spans="2:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1048560" s="73"/>
       <c r="C1048560" s="73"/>
       <c r="D1048560" s="73"/>
@@ -8927,21 +8927,21 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" error="Ingresar al menos 200 caracteres" sqref="C12"/>
@@ -8951,7 +8951,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C18">
       <formula1>"si,no"</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura " error="Ingresar al menos 150 caracteres (no cuentan los espacios)&#10;&#10;" sqref="C84:C85">
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura " error="Ingresar al menos 150 caracteres (no cuentan los espacios)_x000a__x000a_" sqref="C84:C85">
       <formula1>LEN(TRIM(C84))&gt;150</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de Captura" error="Ingresar al menos 200 caracteres (no incluyen espacios)" sqref="K84:O85 P83:P84 H83:O83 C81:G82">
@@ -8988,7 +8988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A4:S21"/>
   <sheetViews>
@@ -8996,25 +8996,25 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:19">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="127"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="127"/>
       <c r="F5" s="85" t="s">
         <v>177</v>
@@ -9028,23 +9028,23 @@
       <c r="M5" s="104"/>
       <c r="N5" s="104"/>
       <c r="O5" s="104"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="152"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="127"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="152"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="127"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -9061,7 +9061,7 @@
       <c r="R7" s="86"/>
       <c r="S7" s="86"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>1.1000000000000001</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="R8" s="88"/>
       <c r="S8" s="88"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>1.2</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="R9" s="88"/>
       <c r="S9" s="88"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="87"/>
       <c r="B10" s="129"/>
       <c r="C10" s="129"/>
@@ -9136,14 +9136,14 @@
       <c r="R10" s="88"/>
       <c r="S10" s="88"/>
     </row>
-    <row r="11" spans="1:19" ht="18.75" customHeight="1">
+    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="87"/>
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="184" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
       <c r="F11" s="88"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
@@ -9159,7 +9159,7 @@
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>1.3</v>
       </c>
@@ -9186,14 +9186,14 @@
       <c r="R12" s="88"/>
       <c r="S12" s="88"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="87">
         <v>1.4</v>
       </c>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="184"/>
+      <c r="C13" s="182"/>
       <c r="D13" s="130" t="s">
         <v>168</v>
       </c>
@@ -9213,14 +9213,14 @@
       <c r="R13" s="88"/>
       <c r="S13" s="88"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>1.5</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="184"/>
+      <c r="C14" s="182"/>
       <c r="D14" s="128" t="s">
         <v>170</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="R14" s="88"/>
       <c r="S14" s="88"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="87"/>
       <c r="B15" s="133"/>
       <c r="C15" s="131"/>
@@ -9261,14 +9261,14 @@
       <c r="R15" s="88"/>
       <c r="S15" s="88"/>
     </row>
-    <row r="16" spans="1:19" ht="18.75" customHeight="1">
+    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="87"/>
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="184" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
       <c r="F16" s="88"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -9278,7 +9278,7 @@
       <c r="L16" s="88"/>
       <c r="M16" s="88"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>1.6</v>
       </c>
@@ -9289,18 +9289,18 @@
       <c r="D17" s="128"/>
       <c r="E17" s="128"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="87">
         <v>1.7</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="184"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="130"/>
       <c r="E18" s="128"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="87">
         <v>1.8</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="D19" s="128"/>
       <c r="E19" s="128"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="87">
         <v>1.9</v>
       </c>
@@ -9321,23 +9321,23 @@
       <c r="C20" s="186"/>
       <c r="D20" s="128"/>
       <c r="E20" s="128"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1">
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="87">
         <v>2</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="184"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="130"/>
       <c r="E21" s="128"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
       <c r="O21" s="86"/>
       <c r="P21" s="86"/>
       <c r="Q21" s="86"/>
@@ -9346,6 +9346,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="P5:Q5"/>
@@ -9360,11 +9365,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:S12">
